--- a/biology/Botanique/Lab_71/Lab_71.xlsx
+++ b/biology/Botanique/Lab_71/Lab_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lab 71 est un site de découverte de la science et du développement durable, ouvert au grand public et à destination principalement des jeunes et des scolaires.
-Le Lab voit le jour dans ce qui fut de 2002 à 2014 la galerie européenne de la forêt et du bois[1]. C'est un site initialement d'exposition et de conférence autour de la filière bois et de l'habitat durable. Le bâtiment de 2 650 mètres carrés dont plus de 1 000 mètres carrés d'expositions[1] permanentes ou éphémères se veut une vitrine actuelle de l'art, des métiers et des techniques du bois[3]. C'est l'un des premiers sites français à se préoccuper de ces thèmes.
-Le site est géré par le conseil départemental de Saône-et-Loire. Il a accueilli 6 875 visiteurs en 2015[2].
-Le Lab 71 est entièrement accessible aux personnes handicapées quel que soit leur handicap[4], et a reçu le label « Tourisme et handicap ».
+Le Lab voit le jour dans ce qui fut de 2002 à 2014 la galerie européenne de la forêt et du bois. C'est un site initialement d'exposition et de conférence autour de la filière bois et de l'habitat durable. Le bâtiment de 2 650 mètres carrés dont plus de 1 000 mètres carrés d'expositions permanentes ou éphémères se veut une vitrine actuelle de l'art, des métiers et des techniques du bois. C'est l'un des premiers sites français à se préoccuper de ces thèmes.
+Le site est géré par le conseil départemental de Saône-et-Loire. Il a accueilli 6 875 visiteurs en 2015.
+Le Lab 71 est entièrement accessible aux personnes handicapées quel que soit leur handicap, et a reçu le label « Tourisme et handicap ».
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet de galerie a été lancé à l'initiative du Conseil général de Saône-et-Loire, à la fin des années 1990. Le bâtiment qui l'abrite est l'œuvre des architectes Bailly[5] et Thuel. Il a reçu le premier prix d'architecture dans la catégorie « ossature bois » du trophée National du Bois décerné à l’occasion du salon EXPOBOIS de Paris en 2004[1],[6].
-La galerie est inaugurée en novembre 2002. En 10 ans, la galerie a accueilli plus de 150 000 visiteurs[7], attirés par ses nombreuses expositions et les événements qui rythment la vie de la galerie. En 2014, la GEFB devient le Lab 71.
-Le nouveau nom et le nouveau logo, fruit d'une réflexion sur l'usage du site sont présentés à l'occasion de la Fête de la Science en Bourgogne, le 11 octobre 2014[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet de galerie a été lancé à l'initiative du Conseil général de Saône-et-Loire, à la fin des années 1990. Le bâtiment qui l'abrite est l'œuvre des architectes Bailly et Thuel. Il a reçu le premier prix d'architecture dans la catégorie « ossature bois » du trophée National du Bois décerné à l’occasion du salon EXPOBOIS de Paris en 2004,.
+La galerie est inaugurée en novembre 2002. En 10 ans, la galerie a accueilli plus de 150 000 visiteurs, attirés par ses nombreuses expositions et les événements qui rythment la vie de la galerie. En 2014, la GEFB devient le Lab 71.
+Le nouveau nom et le nouveau logo, fruit d'une réflexion sur l'usage du site sont présentés à l'occasion de la Fête de la Science en Bourgogne, le 11 octobre 2014.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Géographie et accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé en Bourgogne du Sud, sur la commune de Dompierre-les-Ormes, le Lab est située dans une région vallonnée et boisée surnommée la petite suisse du mâconnais[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé en Bourgogne du Sud, sur la commune de Dompierre-les-Ormes, le Lab est située dans une région vallonnée et boisée surnommée la petite suisse du mâconnais.
 L'accès se fait par la RCEA ( Dompierre-les-Ormes), à 20 minutes de Mâcon (autoroute A6, A40 Mâcon-Genéve, Gare Mâcon-Loché TGV et Gare SNCF Mâcon-Ville).
 </t>
         </is>
@@ -579,16 +595,16 @@
           <t>Site touristique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espace muséographique propose diverses expositions sur les thèmes suivants[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espace muséographique propose diverses expositions sur les thèmes suivants :
 filière bois ;
 la xylothèque, qui permet de découvrir par le toucher 200 échantillons de bois, de variétés différentes, sous la forme de galets ;
 matériaux innovants à base de bois et de végétaux ;
 la croissance des arbres.
-Elle propose aussi en permanence des expositions éphémères[11], et participe aux journées européennes des métiers d’arts organisées par l'Institut national des métiers d'art, sur 2 jours durant lesquels il a été enregistré près de 2500 visiteurs [12],[13],[14].
-L'Arboretum de Pézanin
-Le Lab est également placée à deux minutes à pied de l'Arboretum de Pézanin et de son lac. Créé en 1903 par un grand botaniste et agronome français, Philippe de Vilmorin, sur les terres du château d'Audour, l'arboretum est géré depuis près d'un siècle par l’État. Sa vocation principale est d'acclimater des espèces du monde entier, et aujourd'hui de s'ouvrir au grand public et aux familles. L'arboretum renferme plusieurs centaines d'espèces d'arbres différentes réparties sur 27 ha[15].
+Elle propose aussi en permanence des expositions éphémères, et participe aux journées européennes des métiers d’arts organisées par l'Institut national des métiers d'art, sur 2 jours durant lesquels il a été enregistré près de 2500 visiteurs .
 </t>
         </is>
       </c>
@@ -614,16 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Conférences, enseignement et recherche</t>
+          <t>Site touristique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conférences, enseignement
-L'auditorium d'une capacité de 130 places assises[16] est régulièrement employé pour la tenue de conférences à but pédagogique[17].
-Par ses collaborations avec des écoles, le Lab met en valeur la filière bois, surtout auprès des jeunes[18]. Ainsi, chaque année est organisé le Forum des métiers de la filière forêt-bois qui permet aux jeunes de s'entretenir avec des professionnels, et de découvrir tout un panel de métier et de formations scolaires possibles[19],[20].
-Recherches et Projet Architectural
-Deux architectes doctorants de l’ENSAG sont installés sur le site depuis 2009, leurs recherches portent sur de nouvelles formes d’habitat économique en Saône-et-Loire[21].
+          <t>L'Arboretum de Pézanin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lab est également placée à deux minutes à pied de l'Arboretum de Pézanin et de son lac. Créé en 1903 par un grand botaniste et agronome français, Philippe de Vilmorin, sur les terres du château d'Audour, l'arboretum est géré depuis près d'un siècle par l’État. Sa vocation principale est d'acclimater des espèces du monde entier, et aujourd'hui de s'ouvrir au grand public et aux familles. L'arboretum renferme plusieurs centaines d'espèces d'arbres différentes réparties sur 27 ha.
 </t>
         </is>
       </c>
@@ -649,10 +667,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Conférences, enseignement et recherche</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conférences, enseignement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auditorium d'une capacité de 130 places assises est régulièrement employé pour la tenue de conférences à but pédagogique.
+Par ses collaborations avec des écoles, le Lab met en valeur la filière bois, surtout auprès des jeunes. Ainsi, chaque année est organisé le Forum des métiers de la filière forêt-bois qui permet aux jeunes de s'entretenir avec des professionnels, et de découvrir tout un panel de métier et de formations scolaires possibles,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lab_71</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lab_71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Conférences, enseignement et recherche</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recherches et Projet Architectural</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux architectes doctorants de l’ENSAG sont installés sur le site depuis 2009, leurs recherches portent sur de nouvelles formes d’habitat économique en Saône-et-Loire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lab_71</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lab_71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Organisation d'évènements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site sert à l'organisation d'évènements divers (rassemblements, assemblées générales, conférences, réunions, etc), grâce à son auditorium et à la facilité d'hébergement sur la commune de Dompierre-les-Ormes. Dompierre a d'ailleurs accueilli en 2011 la Montée historique de Dompierre par le Club porsche 928 de France, rassemblement national du club, ainsi que de nombreuses assemblées générales d'associations de dimension nationales.
 Durant l'été 2013, certains concerts du festival Jazz campus en Clunisois s'y sont déroulés.
